--- a/AutoLoader/Contents/Support/LoadCalculationConfig/房间功能映射表.xlsx
+++ b/AutoLoader/Contents/Support/LoadCalculationConfig/房间功能映射表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI研究中心\暖通调研\按指标计算负荷\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\AutoLoader\Contents\Support\LoadCalculationConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1393,7 +1393,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>房间功能标签</t>
+    <t>暖通房间功能标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1777,7 +1777,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J303" sqref="J303"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1787,7 @@
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>

--- a/AutoLoader/Contents/Support/LoadCalculationConfig/房间功能映射表.xlsx
+++ b/AutoLoader/Contents/Support/LoadCalculationConfig/房间功能映射表.xlsx
@@ -1504,7 +1504,7 @@
     <t>早教</t>
   </si>
   <si>
-    <t>*早教</t>
+    <t>*早教，*培训</t>
   </si>
   <si>
     <t>观演建筑</t>
@@ -1593,42 +1593,42 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="36">
+    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="179" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="182" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="183" formatCode="[$-804]aaa"/>
     <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="185" formatCode="[$-804]aaaa"/>
+    <numFmt numFmtId="186" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="187" formatCode="yy/m/d"/>
+    <numFmt numFmtId="188" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="189" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="190" formatCode="m/d"/>
+    <numFmt numFmtId="191" formatCode="mmmmm"/>
+    <numFmt numFmtId="192" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="193" formatCode="#\ ??"/>
+    <numFmt numFmtId="194" formatCode="mmmmm\-yy"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
+    <numFmt numFmtId="196" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="yy/m/d"/>
-    <numFmt numFmtId="177" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="178" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="m/d"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="184" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="185" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="186" formatCode="#\ ??"/>
-    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="189" formatCode="mmmmm"/>
-    <numFmt numFmtId="190" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="191" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="192" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="193" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="194" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="195" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="196" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="197" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="197" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
+    <numFmt numFmtId="198" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="199" formatCode="\¥#,##0;\¥\-#,##0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="199" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1646,31 +1646,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1691,9 +1668,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1716,6 +1715,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1731,24 +1745,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1760,8 +1774,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1769,21 +1784,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1805,13 +1805,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,127 +1895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1961,19 +1925,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,7 +1949,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,17 +1999,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2025,10 +2019,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2045,6 +2037,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2081,112 +2088,105 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2195,56 +2195,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2260,9 +2260,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2598,7 +2595,7 @@
   <dimension ref="A1:I319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="B282" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
     </sheetView>
@@ -4425,7 +4422,6 @@
       <c r="C169" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E169" s="7"/>
       <c r="F169" s="1"/>
       <c r="I169" t="s">
         <v>273</v>
@@ -5664,7 +5660,7 @@
       <c r="C291" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E291" s="9" t="s">
+      <c r="E291" s="8" t="s">
         <v>476</v>
       </c>
       <c r="F291" s="1" t="s">
@@ -5930,10 +5926,10 @@
       <c r="F316" s="1"/>
     </row>
     <row r="317" spans="3:6">
-      <c r="C317" s="8" t="s">
+      <c r="C317" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E317" s="9" t="s">
+      <c r="E317" s="8" t="s">
         <v>518</v>
       </c>
       <c r="F317" s="1" t="s">
@@ -5941,10 +5937,10 @@
       </c>
     </row>
     <row r="318" spans="3:6">
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="E318" s="9" t="s">
+      <c r="E318" s="8" t="s">
         <v>520</v>
       </c>
       <c r="F318" s="1" t="s">
@@ -5952,10 +5948,10 @@
       </c>
     </row>
     <row r="319" spans="3:6">
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="E319" s="9" t="s">
+      <c r="E319" s="8" t="s">
         <v>522</v>
       </c>
       <c r="F319" s="1" t="s">
